--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H2">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I2">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J2">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.007477333333333333</v>
+        <v>0.1082756666666667</v>
       </c>
       <c r="N2">
-        <v>0.022432</v>
+        <v>0.324827</v>
       </c>
       <c r="O2">
-        <v>0.005795036243518624</v>
+        <v>0.05996835676729485</v>
       </c>
       <c r="P2">
-        <v>0.005795036243518625</v>
+        <v>0.05996835676729485</v>
       </c>
       <c r="Q2">
-        <v>0.04144014402133333</v>
+        <v>0.6837096206096667</v>
       </c>
       <c r="R2">
-        <v>0.372961296192</v>
+        <v>6.153386585487</v>
       </c>
       <c r="S2">
-        <v>0.001368687305568808</v>
+        <v>0.01569206963485337</v>
       </c>
       <c r="T2">
-        <v>0.001368687305568809</v>
+        <v>0.01569206963485337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H3">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I3">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J3">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.67795</v>
       </c>
       <c r="O3">
-        <v>0.6918160354997638</v>
+        <v>0.4943932031665386</v>
       </c>
       <c r="P3">
-        <v>0.6918160354997638</v>
+        <v>0.4943932031665387</v>
       </c>
       <c r="Q3">
-        <v>4.9471573503</v>
+        <v>5.636662526550001</v>
       </c>
       <c r="R3">
-        <v>44.5244161527</v>
+        <v>50.72996273895001</v>
       </c>
       <c r="S3">
-        <v>0.1633949790454703</v>
+        <v>0.12936910379573</v>
       </c>
       <c r="T3">
-        <v>0.1633949790454703</v>
+        <v>0.12936910379573</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.542102</v>
+        <v>6.314527000000001</v>
       </c>
       <c r="H4">
-        <v>16.626306</v>
+        <v>18.943581</v>
       </c>
       <c r="I4">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="J4">
-        <v>0.2361826998234217</v>
+        <v>0.2616724966426195</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06873800000000001</v>
+        <v>0.804621</v>
       </c>
       <c r="N4">
-        <v>0.206214</v>
+        <v>2.413863</v>
       </c>
       <c r="O4">
-        <v>0.05327289603784548</v>
+        <v>0.4456384400661664</v>
       </c>
       <c r="P4">
-        <v>0.05327289603784548</v>
+        <v>0.4456384400661665</v>
       </c>
       <c r="Q4">
-        <v>0.380953007276</v>
+        <v>5.080801029267001</v>
       </c>
       <c r="R4">
-        <v>3.428577065484</v>
+        <v>45.727209263403</v>
       </c>
       <c r="S4">
-        <v>0.01258213641363081</v>
+        <v>0.1166113232120361</v>
       </c>
       <c r="T4">
-        <v>0.01258213641363081</v>
+        <v>0.1166113232120362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.542102</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H5">
-        <v>16.626306</v>
+        <v>10.576915</v>
       </c>
       <c r="I5">
-        <v>0.2361826998234217</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J5">
-        <v>0.2361826998234217</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3214343333333333</v>
+        <v>0.1082756666666667</v>
       </c>
       <c r="N5">
-        <v>0.9643029999999999</v>
+        <v>0.324827</v>
       </c>
       <c r="O5">
-        <v>0.2491160322188722</v>
+        <v>0.05996835676729485</v>
       </c>
       <c r="P5">
-        <v>0.2491160322188722</v>
+        <v>0.05996835676729485</v>
       </c>
       <c r="Q5">
-        <v>1.781421861635333</v>
+        <v>0.3817408409672222</v>
       </c>
       <c r="R5">
-        <v>16.032796754718</v>
+        <v>3.435667568705</v>
       </c>
       <c r="S5">
-        <v>0.05883689705875173</v>
+        <v>0.008761473699292923</v>
       </c>
       <c r="T5">
-        <v>0.05883689705875173</v>
+        <v>0.008761473699292923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>10.576915</v>
       </c>
       <c r="I6">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J6">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007477333333333333</v>
+        <v>0.8926500000000001</v>
       </c>
       <c r="N6">
-        <v>0.022432</v>
+        <v>2.67795</v>
       </c>
       <c r="O6">
-        <v>0.005795036243518624</v>
+        <v>0.4943932031665386</v>
       </c>
       <c r="P6">
-        <v>0.005795036243518625</v>
+        <v>0.4943932031665387</v>
       </c>
       <c r="Q6">
-        <v>0.02636237303111111</v>
+        <v>3.14716105825</v>
       </c>
       <c r="R6">
-        <v>0.23726135728</v>
+        <v>28.32444952425</v>
       </c>
       <c r="S6">
-        <v>0.0008706978743552725</v>
+        <v>0.07223164482331051</v>
       </c>
       <c r="T6">
-        <v>0.0008706978743552726</v>
+        <v>0.07223164482331053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>10.576915</v>
       </c>
       <c r="I7">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="J7">
-        <v>0.1502489091986426</v>
+        <v>0.1461016137776048</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8926500000000001</v>
+        <v>0.804621</v>
       </c>
       <c r="N7">
-        <v>2.67795</v>
+        <v>2.413863</v>
       </c>
       <c r="O7">
-        <v>0.6918160354997638</v>
+        <v>0.4456384400661664</v>
       </c>
       <c r="P7">
-        <v>0.6918160354997638</v>
+        <v>0.4456384400661665</v>
       </c>
       <c r="Q7">
-        <v>3.14716105825</v>
+        <v>2.836802641405</v>
       </c>
       <c r="R7">
-        <v>28.32444952425</v>
+        <v>25.531223772645</v>
       </c>
       <c r="S7">
-        <v>0.1039446046999689</v>
+        <v>0.06510849525500133</v>
       </c>
       <c r="T7">
-        <v>0.1039446046999689</v>
+        <v>0.06510849525500133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.525638333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H8">
-        <v>10.576915</v>
+        <v>1.532442</v>
       </c>
       <c r="I8">
-        <v>0.1502489091986426</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J8">
-        <v>0.1502489091986426</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,33 +927,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06873800000000001</v>
+        <v>0.1082756666666667</v>
       </c>
       <c r="N8">
-        <v>0.206214</v>
+        <v>0.324827</v>
       </c>
       <c r="O8">
-        <v>0.05327289603784548</v>
+        <v>0.05996835676729485</v>
       </c>
       <c r="P8">
-        <v>0.05327289603784548</v>
+        <v>0.05996835676729485</v>
       </c>
       <c r="Q8">
-        <v>0.2423453277566667</v>
+        <v>0.05530872639266666</v>
       </c>
       <c r="R8">
-        <v>2.18110794981</v>
+        <v>0.497778537534</v>
       </c>
       <c r="S8">
-        <v>0.00800419451953897</v>
+        <v>0.001269410813899123</v>
       </c>
       <c r="T8">
-        <v>0.00800419451953897</v>
+        <v>0.001269410813899123</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.525638333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H9">
-        <v>10.576915</v>
+        <v>1.532442</v>
       </c>
       <c r="I9">
-        <v>0.1502489091986426</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J9">
-        <v>0.1502489091986426</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3214343333333333</v>
+        <v>0.8926500000000001</v>
       </c>
       <c r="N9">
-        <v>0.9643029999999999</v>
+        <v>2.67795</v>
       </c>
       <c r="O9">
-        <v>0.2491160322188722</v>
+        <v>0.4943932031665386</v>
       </c>
       <c r="P9">
-        <v>0.2491160322188722</v>
+        <v>0.4943932031665387</v>
       </c>
       <c r="Q9">
-        <v>1.133261207249444</v>
+        <v>0.4559781171</v>
       </c>
       <c r="R9">
-        <v>10.199350865245</v>
+        <v>4.1038030539</v>
       </c>
       <c r="S9">
-        <v>0.03742941210477944</v>
+        <v>0.01046532058320631</v>
       </c>
       <c r="T9">
-        <v>0.03742941210477944</v>
+        <v>0.01046532058320632</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.321440333333333</v>
+        <v>0.510814</v>
       </c>
       <c r="H10">
-        <v>3.964321</v>
+        <v>1.532442</v>
       </c>
       <c r="I10">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642661</v>
       </c>
       <c r="J10">
-        <v>0.05631461593132514</v>
+        <v>0.02116801063642662</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.007477333333333333</v>
+        <v>0.804621</v>
       </c>
       <c r="N10">
-        <v>0.022432</v>
+        <v>2.413863</v>
       </c>
       <c r="O10">
-        <v>0.005795036243518624</v>
+        <v>0.4456384400661664</v>
       </c>
       <c r="P10">
-        <v>0.005795036243518625</v>
+        <v>0.4456384400661665</v>
       </c>
       <c r="Q10">
-        <v>0.009880849852444442</v>
+        <v>0.411011671494</v>
       </c>
       <c r="R10">
-        <v>0.088927648672</v>
+        <v>3.699105043446</v>
       </c>
       <c r="S10">
-        <v>0.0003263452403618605</v>
+        <v>0.009433279239321175</v>
       </c>
       <c r="T10">
-        <v>0.0003263452403618606</v>
+        <v>0.009433279239321178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.321440333333333</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H11">
-        <v>3.964321</v>
+        <v>41.3413</v>
       </c>
       <c r="I11">
-        <v>0.05631461593132514</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J11">
-        <v>0.05631461593132514</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8926500000000001</v>
+        <v>0.1082756666666667</v>
       </c>
       <c r="N11">
-        <v>2.67795</v>
+        <v>0.324827</v>
       </c>
       <c r="O11">
-        <v>0.6918160354997638</v>
+        <v>0.05996835676729485</v>
       </c>
       <c r="P11">
-        <v>0.6918160354997638</v>
+        <v>0.05996835676729485</v>
       </c>
       <c r="Q11">
-        <v>1.17958371355</v>
+        <v>1.492085606122222</v>
       </c>
       <c r="R11">
-        <v>10.61625342195</v>
+        <v>13.4287704551</v>
       </c>
       <c r="S11">
-        <v>0.0389593543343012</v>
+        <v>0.03424540261924942</v>
       </c>
       <c r="T11">
-        <v>0.0389593543343012</v>
+        <v>0.03424540261924943</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.321440333333333</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H12">
-        <v>3.964321</v>
+        <v>41.3413</v>
       </c>
       <c r="I12">
-        <v>0.05631461593132514</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J12">
-        <v>0.05631461593132514</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.06873800000000001</v>
+        <v>0.8926500000000001</v>
       </c>
       <c r="N12">
-        <v>0.206214</v>
+        <v>2.67795</v>
       </c>
       <c r="O12">
-        <v>0.05327289603784548</v>
+        <v>0.4943932031665386</v>
       </c>
       <c r="P12">
-        <v>0.05327289603784548</v>
+        <v>0.4943932031665387</v>
       </c>
       <c r="Q12">
-        <v>0.09083316563266666</v>
+        <v>12.301103815</v>
       </c>
       <c r="R12">
-        <v>0.8174984906939999</v>
+        <v>110.709934335</v>
       </c>
       <c r="S12">
-        <v>0.003000042679920681</v>
+        <v>0.2823271339642918</v>
       </c>
       <c r="T12">
-        <v>0.003000042679920681</v>
+        <v>0.2823271339642919</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.321440333333333</v>
+        <v>13.78043333333333</v>
       </c>
       <c r="H13">
-        <v>3.964321</v>
+        <v>41.3413</v>
       </c>
       <c r="I13">
-        <v>0.05631461593132514</v>
+        <v>0.571057878943349</v>
       </c>
       <c r="J13">
-        <v>0.05631461593132514</v>
+        <v>0.5710578789433491</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3214343333333333</v>
+        <v>0.804621</v>
       </c>
       <c r="N13">
-        <v>0.9643029999999999</v>
+        <v>2.413863</v>
       </c>
       <c r="O13">
-        <v>0.2491160322188722</v>
+        <v>0.4456384400661664</v>
       </c>
       <c r="P13">
-        <v>0.2491160322188722</v>
+        <v>0.4456384400661665</v>
       </c>
       <c r="Q13">
-        <v>0.4247562925847777</v>
+        <v>11.0880260491</v>
       </c>
       <c r="R13">
-        <v>3.822806633262999</v>
+        <v>99.79223444190001</v>
       </c>
       <c r="S13">
-        <v>0.0140288736767414</v>
+        <v>0.2544853423598078</v>
       </c>
       <c r="T13">
-        <v>0.0140288736767414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>13.07613666666666</v>
-      </c>
-      <c r="H14">
-        <v>39.22841</v>
-      </c>
-      <c r="I14">
-        <v>0.5572537750466106</v>
-      </c>
-      <c r="J14">
-        <v>0.5572537750466107</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.007477333333333333</v>
-      </c>
-      <c r="N14">
-        <v>0.022432</v>
-      </c>
-      <c r="O14">
-        <v>0.005795036243518624</v>
-      </c>
-      <c r="P14">
-        <v>0.005795036243518625</v>
-      </c>
-      <c r="Q14">
-        <v>0.09777463256888888</v>
-      </c>
-      <c r="R14">
-        <v>0.8799716931199999</v>
-      </c>
-      <c r="S14">
-        <v>0.003229305823232683</v>
-      </c>
-      <c r="T14">
-        <v>0.003229305823232684</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>13.07613666666666</v>
-      </c>
-      <c r="H15">
-        <v>39.22841</v>
-      </c>
-      <c r="I15">
-        <v>0.5572537750466106</v>
-      </c>
-      <c r="J15">
-        <v>0.5572537750466107</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0.8926500000000001</v>
-      </c>
-      <c r="N15">
-        <v>2.67795</v>
-      </c>
-      <c r="O15">
-        <v>0.6918160354997638</v>
-      </c>
-      <c r="P15">
-        <v>0.6918160354997638</v>
-      </c>
-      <c r="Q15">
-        <v>11.6724133955</v>
-      </c>
-      <c r="R15">
-        <v>105.0517205595</v>
-      </c>
-      <c r="S15">
-        <v>0.3855170974200233</v>
-      </c>
-      <c r="T15">
-        <v>0.3855170974200234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>13.07613666666666</v>
-      </c>
-      <c r="H16">
-        <v>39.22841</v>
-      </c>
-      <c r="I16">
-        <v>0.5572537750466106</v>
-      </c>
-      <c r="J16">
-        <v>0.5572537750466107</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.06873800000000001</v>
-      </c>
-      <c r="N16">
-        <v>0.206214</v>
-      </c>
-      <c r="O16">
-        <v>0.05327289603784548</v>
-      </c>
-      <c r="P16">
-        <v>0.05327289603784548</v>
-      </c>
-      <c r="Q16">
-        <v>0.8988274821933333</v>
-      </c>
-      <c r="R16">
-        <v>8.08944733974</v>
-      </c>
-      <c r="S16">
-        <v>0.02968652242475502</v>
-      </c>
-      <c r="T16">
-        <v>0.02968652242475502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>13.07613666666666</v>
-      </c>
-      <c r="H17">
-        <v>39.22841</v>
-      </c>
-      <c r="I17">
-        <v>0.5572537750466106</v>
-      </c>
-      <c r="J17">
-        <v>0.5572537750466107</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.3214343333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.9643029999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.2491160322188722</v>
-      </c>
-      <c r="P17">
-        <v>0.2491160322188722</v>
-      </c>
-      <c r="Q17">
-        <v>4.203119272025555</v>
-      </c>
-      <c r="R17">
-        <v>37.82807344822999</v>
-      </c>
-      <c r="S17">
-        <v>0.1388208493785996</v>
-      </c>
-      <c r="T17">
-        <v>0.1388208493785996</v>
+        <v>0.2544853423598079</v>
       </c>
     </row>
   </sheetData>
